--- a/example/ndsp.xlsx
+++ b/example/ndsp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\ndsp\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BADD34-6927-42E8-A442-63B6A2B39AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4886CE2C-8C42-47B1-AE74-89F6279AC129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="510" windowWidth="32830" windowHeight="18060" xr2:uid="{2F0C53FA-4F3B-4508-8FC7-78E16916E36D}"/>
+    <workbookView xWindow="7920" yWindow="11780" windowWidth="23410" windowHeight="8540" xr2:uid="{2F0C53FA-4F3B-4508-8FC7-78E16916E36D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>xchg</t>
   </si>
@@ -82,75 +82,27 @@
     <t>posLmts</t>
   </si>
   <si>
-    <t>Cboe BYZ</t>
-  </si>
-  <si>
     <t>Trust</t>
   </si>
   <si>
-    <t>GQQQ</t>
-  </si>
-  <si>
-    <t>QQQP</t>
-  </si>
-  <si>
-    <t>SPYQ</t>
-  </si>
-  <si>
-    <t>TLTM</t>
-  </si>
-  <si>
-    <t>TLTQ</t>
-  </si>
-  <si>
-    <t>Common Stock</t>
-  </si>
-  <si>
-    <t>Invesco QQQ Trust</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Trades Locked in at Exchange and settled at NSCC.</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Exchange-Traded Fund</t>
   </si>
   <si>
-    <t>SPDR® S&amp;P 500® Exchange-Traded Fund Trust</t>
-  </si>
-  <si>
-    <t>iShares® 20+ Year Treasury Bond Exchange-Traded Fund</t>
-  </si>
-  <si>
     <t>othIssTyp</t>
   </si>
   <si>
     <t>othClss</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Funding Portal</t>
-  </si>
-  <si>
-    <t>Fungible Token</t>
-  </si>
-  <si>
-    <t>HustleBucks®</t>
-  </si>
-  <si>
-    <t>HBUX</t>
-  </si>
-  <si>
     <t>ticker</t>
   </si>
   <si>
@@ -161,6 +113,42 @@
   </si>
   <si>
     <t>othSttl</t>
+  </si>
+  <si>
+    <t>Exchange I</t>
+  </si>
+  <si>
+    <t>####</t>
+  </si>
+  <si>
+    <t>%%%</t>
+  </si>
+  <si>
+    <t>Option</t>
+  </si>
+  <si>
+    <t>Equity Securities</t>
+  </si>
+  <si>
+    <t>Fixed Income Securities</t>
+  </si>
+  <si>
+    <t>Equities 500 Index</t>
+  </si>
+  <si>
+    <t>Regular way trades settle on T+2/ book entry only held in DTC</t>
+  </si>
+  <si>
+    <t>Trades locked in at Exchange and settled at NSCC.</t>
+  </si>
+  <si>
+    <t>Broad-based</t>
+  </si>
+  <si>
+    <t>@@@@</t>
+  </si>
+  <si>
+    <t>Clearing House</t>
   </si>
 </sst>
 </file>
@@ -196,10 +184,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,8 +402,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{761EB7E8-CA9C-4E82-8FA6-B7557E024C96}" name="Table1" displayName="Table1" ref="A1:R7" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:R7" xr:uid="{761EB7E8-CA9C-4E82-8FA6-B7557E024C96}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{761EB7E8-CA9C-4E82-8FA6-B7557E024C96}" name="Table1" displayName="Table1" ref="A1:R4" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:R4" xr:uid="{761EB7E8-CA9C-4E82-8FA6-B7557E024C96}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{B3E1F443-EEBE-4339-A1EB-BD5A1DDE5639}" uniqueName="xchg" name="xchg">
       <xmlColumnPr mapId="9" xpath="/ndspRpt/ndsp/xchg" xmlDataType="token"/>
@@ -791,9 +781,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956BCFBE-18EA-4D4A-B3B4-93BDBDCD5FCE}">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -812,7 +804,7 @@
     <col min="14" max="14" width="8.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="42.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.453125" customWidth="1"/>
     <col min="18" max="18" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -821,25 +813,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -863,7 +855,7 @@
         <v>9</v>
       </c>
       <c r="P1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Q1" t="s">
         <v>10</v>
@@ -874,59 +866,59 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>45567</v>
       </c>
       <c r="C2" s="2">
-        <v>45567</v>
+        <v>45566</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <v>45567</v>
@@ -934,51 +926,51 @@
       <c r="C3" s="2">
         <v>45567</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>45567</v>
@@ -987,203 +979,43 @@
         <v>45567</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45567</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45567</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45567</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45567</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45567</v>
-      </c>
-      <c r="C7" s="2">
-        <v>45567</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>24</v>
+      <c r="R4" s="3">
+        <v>24000</v>
       </c>
     </row>
   </sheetData>
